--- a/biology/Médecine/QJM__An_International_Journal_of_Medicine/QJM__An_International_Journal_of_Medicine.xlsx
+++ b/biology/Médecine/QJM__An_International_Journal_of_Medicine/QJM__An_International_Journal_of_Medicine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La publication QJM: An International Journal of Medicine, parfois présentée sous l'abréviation Q J Med., est un journal médical britannique revu par les pairs, créé en octobre 1907 sous le titre Quarterly Journal of Medicine. Au départ publiée chaque trimestre la revue devient mensuelle au début de l'année 1985. Conservant les initiales originales dans son titre pour des raisons de continuité, son nom a été changé à la suite de cette nouvelle fréquence de publication.
